--- a/MotivationWise.xlsx
+++ b/MotivationWise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlsch\Documents\R\Sports-Drinks-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E6A0D1-7C22-4D72-A1C9-F8791AD5D068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5812D0-134D-4A26-8C40-9D872ABFA1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="830" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35420,10 +35420,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EFB26A-8682-4172-8B4A-2652164671E2}">
-  <dimension ref="A1:AE59"/>
+  <dimension ref="A1:AE49"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35623,7 +35623,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>91341</v>
+        <v>44363</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -35632,13 +35632,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -35665,10 +35665,10 @@
         <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
         <v>1</v>
@@ -35677,7 +35677,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="2">
         <v>1</v>
@@ -35686,19 +35686,19 @@
         <v>0</v>
       </c>
       <c r="V3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="2">
         <v>1</v>
       </c>
       <c r="Z3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="2">
         <v>1</v>
@@ -35718,7 +35718,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44363</v>
+        <v>90676</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -35730,37 +35730,37 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
@@ -35769,10 +35769,10 @@
         <v>1</v>
       </c>
       <c r="R4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2">
         <v>1</v>
@@ -35790,13 +35790,13 @@
         <v>1</v>
       </c>
       <c r="Y4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="2">
         <v>1</v>
       </c>
       <c r="AA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="2">
         <v>1</v>
@@ -35813,7 +35813,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>34218</v>
+        <v>83025</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -35825,10 +35825,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -35840,16 +35840,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -35867,10 +35867,10 @@
         <v>1</v>
       </c>
       <c r="S5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -35882,16 +35882,16 @@
         <v>1</v>
       </c>
       <c r="X5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="2">
         <v>1</v>
       </c>
       <c r="AA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="2">
         <v>1</v>
@@ -35908,7 +35908,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>90676</v>
+        <v>67405</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -35917,7 +35917,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -35935,16 +35935,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -35956,13 +35956,13 @@
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2">
         <v>1</v>
@@ -35971,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
         <v>1</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Z6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="2">
         <v>1</v>
@@ -36003,7 +36003,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>67405</v>
+        <v>98697</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -36018,19 +36018,19 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -36048,10 +36048,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2">
         <v>1</v>
@@ -36066,25 +36066,25 @@
         <v>0</v>
       </c>
       <c r="V7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="2">
         <v>1</v>
       </c>
       <c r="X7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="2">
         <v>1</v>
       </c>
       <c r="AB7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="2">
         <v>1</v>
@@ -36098,7 +36098,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>26420</v>
+        <v>21614</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -36110,10 +36110,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -36122,19 +36122,19 @@
         <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -36146,16 +36146,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -36176,10 +36176,10 @@
         <v>0</v>
       </c>
       <c r="AA8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="2">
         <v>1</v>
@@ -36193,7 +36193,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>50135</v>
+        <v>11666</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -36202,34 +36202,34 @@
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -36256,10 +36256,10 @@
         <v>0</v>
       </c>
       <c r="V9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2">
         <v>1</v>
@@ -36274,7 +36274,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="2">
         <v>1</v>
@@ -36288,7 +36288,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>98697</v>
+        <v>30046</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -36297,13 +36297,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -36330,13 +36330,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2">
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2">
         <v>1</v>
@@ -36351,7 +36351,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2">
         <v>1</v>
@@ -36360,19 +36360,19 @@
         <v>0</v>
       </c>
       <c r="Y10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="2">
         <v>1</v>
       </c>
       <c r="AB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
@@ -36383,7 +36383,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>11666</v>
+        <v>73750</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -36395,25 +36395,25 @@
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
@@ -36425,7 +36425,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="2">
         <v>1</v>
@@ -36434,7 +36434,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="2">
         <v>1</v>
@@ -36446,19 +36446,19 @@
         <v>0</v>
       </c>
       <c r="V11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="2">
         <v>1</v>
       </c>
       <c r="Y11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="2">
         <v>1</v>
@@ -36478,7 +36478,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>30046</v>
+        <v>30140</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -36490,10 +36490,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -36505,7 +36505,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -36514,7 +36514,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -36523,10 +36523,10 @@
         <v>1</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2">
         <v>1</v>
@@ -36541,19 +36541,19 @@
         <v>0</v>
       </c>
       <c r="V12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="2">
         <v>1</v>
       </c>
       <c r="X12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="2">
         <v>1</v>
@@ -36562,7 +36562,7 @@
         <v>1</v>
       </c>
       <c r="AC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -36573,7 +36573,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>73750</v>
+        <v>69081</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -36668,7 +36668,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>30140</v>
+        <v>24025</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -36731,7 +36731,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2">
         <v>1</v>
@@ -36763,7 +36763,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>69081</v>
+        <v>61314</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -36858,7 +36858,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>24025</v>
+        <v>68717</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -36867,13 +36867,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -36882,10 +36882,10 @@
         <v>1</v>
       </c>
       <c r="I16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -36900,7 +36900,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2">
         <v>1</v>
@@ -36912,34 +36912,34 @@
         <v>1</v>
       </c>
       <c r="S16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="2">
         <v>1</v>
       </c>
       <c r="Z16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="2">
         <v>1</v>
       </c>
       <c r="AB16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="2">
         <v>1</v>
@@ -36953,7 +36953,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>61314</v>
+        <v>71269</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -36977,10 +36977,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -36989,19 +36989,19 @@
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
         <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2">
         <v>1</v>
@@ -37010,7 +37010,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
@@ -37019,13 +37019,13 @@
         <v>1</v>
       </c>
       <c r="W17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2">
         <v>1</v>
       </c>
       <c r="Y17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="2">
         <v>1</v>
@@ -37034,10 +37034,10 @@
         <v>1</v>
       </c>
       <c r="AB17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -37048,7 +37048,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>42513</v>
+        <v>45344</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -37072,7 +37072,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="2">
         <v>1</v>
@@ -37081,25 +37081,25 @@
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2">
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="2">
         <v>0</v>
@@ -37114,7 +37114,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="2">
         <v>1</v>
@@ -37129,7 +37129,7 @@
         <v>1</v>
       </c>
       <c r="AB18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="2">
         <v>1</v>
@@ -37143,7 +37143,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45344</v>
+        <v>32520</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -37155,10 +37155,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -37167,19 +37167,19 @@
         <v>1</v>
       </c>
       <c r="I19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -37188,7 +37188,7 @@
         <v>1</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
         <v>1</v>
@@ -37197,7 +37197,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="2">
         <v>1</v>
@@ -37206,16 +37206,16 @@
         <v>0</v>
       </c>
       <c r="V19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="2">
         <v>1</v>
       </c>
       <c r="X19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="2">
         <v>1</v>
@@ -37238,7 +37238,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>32520</v>
+        <v>51666</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -37250,7 +37250,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -37262,10 +37262,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -37301,19 +37301,19 @@
         <v>0</v>
       </c>
       <c r="V20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2">
         <v>0</v>
       </c>
       <c r="Y20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="2">
         <v>1</v>
@@ -37333,7 +37333,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>18750</v>
+        <v>18826</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -37342,10 +37342,10 @@
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -37360,16 +37360,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -37378,7 +37378,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
         <v>1</v>
@@ -37396,25 +37396,25 @@
         <v>0</v>
       </c>
       <c r="V21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="2">
         <v>0</v>
       </c>
       <c r="Z21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="2">
         <v>1</v>
       </c>
       <c r="AB21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="2">
         <v>0</v>
@@ -37428,7 +37428,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>51666</v>
+        <v>15206</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -37437,13 +37437,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -37455,16 +37455,16 @@
         <v>1</v>
       </c>
       <c r="J22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -37473,10 +37473,10 @@
         <v>1</v>
       </c>
       <c r="P22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2">
         <v>1</v>
@@ -37485,22 +37485,22 @@
         <v>1</v>
       </c>
       <c r="T22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="2">
         <v>0</v>
       </c>
       <c r="X22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="2">
         <v>0</v>
@@ -37512,7 +37512,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="2">
         <v>0</v>
@@ -37523,7 +37523,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>75738</v>
+        <v>47634</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -37544,19 +37544,19 @@
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -37577,7 +37577,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" s="2">
         <v>1</v>
@@ -37589,10 +37589,10 @@
         <v>0</v>
       </c>
       <c r="W23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="2">
         <v>0</v>
@@ -37601,7 +37601,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="2">
         <v>1</v>
@@ -37618,7 +37618,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>18826</v>
+        <v>69546</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -37627,7 +37627,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -37642,10 +37642,10 @@
         <v>1</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -37654,13 +37654,13 @@
         <v>1</v>
       </c>
       <c r="M24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
       </c>
       <c r="O24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2">
         <v>1</v>
@@ -37669,10 +37669,10 @@
         <v>1</v>
       </c>
       <c r="R24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="2">
         <v>1</v>
@@ -37684,19 +37684,19 @@
         <v>0</v>
       </c>
       <c r="W24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="2">
         <v>0</v>
       </c>
       <c r="Z24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="2">
         <v>0</v>
@@ -37705,7 +37705,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24" s="2">
         <v>0</v>
@@ -37713,16 +37713,16 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>47634</v>
+        <v>18887</v>
       </c>
       <c r="B25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -37734,13 +37734,13 @@
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -37755,7 +37755,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="2">
         <v>0</v>
@@ -37767,10 +37767,10 @@
         <v>1</v>
       </c>
       <c r="S25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="W25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2">
         <v>1</v>
       </c>
       <c r="Y25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25" s="2">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>1</v>
       </c>
       <c r="AC25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="2">
         <v>0</v>
@@ -37808,10 +37808,10 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>65634</v>
+        <v>31932</v>
       </c>
       <c r="B26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -37829,19 +37829,19 @@
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>1</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="2">
         <v>0</v>
       </c>
       <c r="S26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="2">
         <v>1</v>
@@ -37877,13 +37877,13 @@
         <v>0</v>
       </c>
       <c r="X26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="2">
         <v>0</v>
       </c>
       <c r="Z26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26" s="2">
         <v>1</v>
@@ -37903,10 +37903,10 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>69546</v>
+        <v>44591</v>
       </c>
       <c r="B27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -37915,7 +37915,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -37948,19 +37948,19 @@
         <v>1</v>
       </c>
       <c r="P27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="2">
         <v>1</v>
       </c>
       <c r="T27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
@@ -37972,16 +37972,16 @@
         <v>0</v>
       </c>
       <c r="X27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="2">
         <v>0</v>
       </c>
       <c r="AA27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="2">
         <v>0</v>
@@ -37990,7 +37990,7 @@
         <v>0</v>
       </c>
       <c r="AD27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="2">
         <v>0</v>
@@ -37998,10 +37998,10 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>68844</v>
+        <v>12863</v>
       </c>
       <c r="B28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -38010,7 +38010,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -38025,25 +38025,25 @@
         <v>0</v>
       </c>
       <c r="J28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2">
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -38064,13 +38064,13 @@
         <v>0</v>
       </c>
       <c r="W28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2">
         <v>0</v>
       </c>
       <c r="Y28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="2">
         <v>1</v>
@@ -38093,7 +38093,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>20044</v>
+        <v>47031</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -38120,28 +38120,28 @@
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
       </c>
       <c r="L29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2">
         <v>1</v>
@@ -38150,7 +38150,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
@@ -38165,10 +38165,10 @@
         <v>0</v>
       </c>
       <c r="Y29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="2">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>1</v>
       </c>
       <c r="AC29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="2">
         <v>0</v>
@@ -38188,10 +38188,10 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>31932</v>
+        <v>13994</v>
       </c>
       <c r="B30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -38209,16 +38209,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
       </c>
       <c r="K30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
@@ -38230,7 +38230,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
         <v>0</v>
@@ -38239,13 +38239,13 @@
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
@@ -38257,7 +38257,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="2">
         <v>0</v>
@@ -38266,10 +38266,10 @@
         <v>1</v>
       </c>
       <c r="AA30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="2">
         <v>1</v>
@@ -38283,10 +38283,10 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>50011</v>
+        <v>80257</v>
       </c>
       <c r="B31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -38316,7 +38316,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="2">
         <v>0</v>
@@ -38331,16 +38331,16 @@
         <v>0</v>
       </c>
       <c r="Q31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="2">
         <v>1</v>
       </c>
       <c r="S31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
@@ -38352,7 +38352,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="2">
         <v>0</v>
@@ -38367,7 +38367,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="2">
         <v>0</v>
@@ -38378,19 +38378,19 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>12863</v>
+        <v>55890</v>
       </c>
       <c r="B32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -38399,22 +38399,22 @@
         <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
         <v>0</v>
       </c>
       <c r="J32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
       </c>
       <c r="M32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
@@ -38429,13 +38429,13 @@
         <v>0</v>
       </c>
       <c r="R32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
@@ -38450,16 +38450,16 @@
         <v>0</v>
       </c>
       <c r="Y32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="2">
         <v>1</v>
@@ -38473,10 +38473,10 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>93067</v>
+        <v>65107</v>
       </c>
       <c r="B33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -38488,13 +38488,13 @@
         <v>1</v>
       </c>
       <c r="F33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="2">
         <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
@@ -38503,13 +38503,13 @@
         <v>0</v>
       </c>
       <c r="K33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
@@ -38521,13 +38521,13 @@
         <v>1</v>
       </c>
       <c r="Q33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="2">
         <v>1</v>
@@ -38536,7 +38536,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="2">
         <v>0</v>
@@ -38548,16 +38548,16 @@
         <v>0</v>
       </c>
       <c r="Z33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="2">
         <v>0</v>
       </c>
       <c r="AC33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="2">
         <v>0</v>
@@ -38568,10 +38568,10 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>47805</v>
+        <v>21071</v>
       </c>
       <c r="B34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -38589,19 +38589,19 @@
         <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2">
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
       </c>
       <c r="L34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="2">
         <v>0</v>
@@ -38613,10 +38613,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2">
         <v>1</v>
@@ -38625,7 +38625,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="2">
         <v>0</v>
@@ -38634,25 +38634,25 @@
         <v>0</v>
       </c>
       <c r="W34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="2">
         <v>0</v>
       </c>
       <c r="AA34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" s="2">
         <v>0</v>
       </c>
       <c r="AC34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="2">
         <v>0</v>
@@ -38663,10 +38663,10 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>91307</v>
+        <v>64051</v>
       </c>
       <c r="B35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -38675,7 +38675,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -38693,10 +38693,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="2">
         <v>0</v>
@@ -38705,28 +38705,28 @@
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="2">
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="2">
         <v>0</v>
@@ -38738,7 +38738,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35" s="2">
         <v>0</v>
@@ -38750,7 +38750,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="2">
         <v>0</v>
@@ -38758,7 +38758,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>28223</v>
+        <v>71628</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -38767,19 +38767,19 @@
         <v>1</v>
       </c>
       <c r="D36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -38791,16 +38791,16 @@
         <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="2">
         <v>0</v>
@@ -38812,10 +38812,10 @@
         <v>1</v>
       </c>
       <c r="S36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="2">
         <v>0</v>
@@ -38830,10 +38830,10 @@
         <v>0</v>
       </c>
       <c r="Y36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36" s="2">
         <v>0</v>
@@ -38853,7 +38853,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>34077</v>
+        <v>37335</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -38862,7 +38862,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -38871,10 +38871,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -38883,10 +38883,10 @@
         <v>0</v>
       </c>
       <c r="K37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
@@ -38898,7 +38898,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="2">
         <v>0</v>
@@ -38907,10 +38907,10 @@
         <v>0</v>
       </c>
       <c r="S37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="2">
         <v>0</v>
@@ -38937,7 +38937,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="2">
         <v>0</v>
@@ -38948,7 +38948,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>47155</v>
+        <v>78731</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -38963,7 +38963,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
@@ -38972,16 +38972,16 @@
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
       </c>
       <c r="K38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="2">
         <v>1</v>
@@ -38990,7 +38990,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="2">
         <v>1</v>
@@ -38999,13 +38999,13 @@
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="2">
         <v>0</v>
@@ -39026,13 +39026,13 @@
         <v>0</v>
       </c>
       <c r="AA38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38" s="2">
         <v>1</v>
       </c>
       <c r="AC38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="2">
         <v>0</v>
@@ -39043,7 +39043,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>65120</v>
+        <v>67517</v>
       </c>
       <c r="B39" s="2">
         <v>0</v>
@@ -39058,25 +39058,25 @@
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
       </c>
       <c r="K39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="2">
         <v>0</v>
@@ -39088,19 +39088,19 @@
         <v>0</v>
       </c>
       <c r="P39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="2">
         <v>0</v>
       </c>
       <c r="T39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="2">
         <v>0</v>
@@ -39118,13 +39118,13 @@
         <v>0</v>
       </c>
       <c r="Z39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="2">
         <v>1</v>
       </c>
       <c r="AB39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="2">
         <v>0</v>
@@ -39138,16 +39138,16 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>23884</v>
+        <v>77000</v>
       </c>
       <c r="B40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
       </c>
       <c r="D40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -39159,19 +39159,19 @@
         <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="2">
         <v>0</v>
@@ -39183,10 +39183,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="2">
         <v>0</v>
@@ -39195,28 +39195,28 @@
         <v>1</v>
       </c>
       <c r="T40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="2">
         <v>0</v>
       </c>
       <c r="V40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="2">
         <v>1</v>
       </c>
       <c r="X40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="2">
         <v>1</v>
       </c>
       <c r="AA40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="2">
         <v>0</v>
@@ -39233,7 +39233,7 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>65107</v>
+        <v>44038</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -39242,10 +39242,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
@@ -39263,7 +39263,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="2">
         <v>1</v>
@@ -39275,10 +39275,10 @@
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="2">
         <v>0</v>
@@ -39287,7 +39287,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" s="2">
         <v>1</v>
@@ -39299,25 +39299,25 @@
         <v>0</v>
       </c>
       <c r="W41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="2">
         <v>0</v>
       </c>
       <c r="AB41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="2">
         <v>0</v>
@@ -39328,7 +39328,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>89854</v>
+        <v>24480</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
@@ -39340,7 +39340,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
@@ -39352,7 +39352,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
@@ -39361,31 +39361,31 @@
         <v>0</v>
       </c>
       <c r="L42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="2">
         <v>0</v>
       </c>
       <c r="R42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="2">
         <v>0</v>
@@ -39397,7 +39397,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="2">
         <v>0</v>
@@ -39406,10 +39406,10 @@
         <v>0</v>
       </c>
       <c r="AA42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="2">
         <v>0</v>
@@ -39423,19 +39423,19 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>52400</v>
+        <v>27577</v>
       </c>
       <c r="B43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="D43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
@@ -39447,16 +39447,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
       </c>
       <c r="K43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="2">
         <v>0</v>
@@ -39465,19 +39465,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="2">
         <v>1</v>
@@ -39498,7 +39498,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="2">
         <v>1</v>
@@ -39507,7 +39507,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="2">
         <v>0</v>
@@ -39518,10 +39518,10 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>44038</v>
+        <v>30152</v>
       </c>
       <c r="B44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -39542,19 +39542,19 @@
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
       </c>
       <c r="K44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" s="2">
         <v>1</v>
       </c>
       <c r="M44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -39563,7 +39563,7 @@
         <v>1</v>
       </c>
       <c r="P44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="2">
         <v>0</v>
@@ -39572,10 +39572,10 @@
         <v>0</v>
       </c>
       <c r="S44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
@@ -39584,22 +39584,22 @@
         <v>0</v>
       </c>
       <c r="W44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2">
         <v>1</v>
       </c>
       <c r="Y44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="2">
         <v>0</v>
@@ -39613,7 +39613,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>95722</v>
+        <v>56203</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -39622,13 +39622,13 @@
         <v>1</v>
       </c>
       <c r="D45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
       </c>
       <c r="F45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="2">
         <v>0</v>
@@ -39637,7 +39637,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
@@ -39646,10 +39646,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -39658,19 +39658,19 @@
         <v>1</v>
       </c>
       <c r="P45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="2">
         <v>0</v>
       </c>
       <c r="T45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" s="2">
         <v>0</v>
@@ -39679,7 +39679,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2">
         <v>0</v>
@@ -39688,16 +39688,16 @@
         <v>0</v>
       </c>
       <c r="Z45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45" s="2">
         <v>0</v>
       </c>
       <c r="AC45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="2">
         <v>0</v>
@@ -39708,7 +39708,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>77988</v>
+        <v>27527</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -39717,7 +39717,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -39729,7 +39729,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
         <v>0</v>
@@ -39738,31 +39738,31 @@
         <v>0</v>
       </c>
       <c r="K46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
       </c>
       <c r="O46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="2">
         <v>0</v>
       </c>
       <c r="Q46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="2">
         <v>1</v>
@@ -39777,22 +39777,22 @@
         <v>0</v>
       </c>
       <c r="X46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="2">
         <v>0</v>
       </c>
       <c r="AB46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="2">
         <v>0</v>
@@ -39803,10 +39803,10 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>46895</v>
+        <v>14100</v>
       </c>
       <c r="B47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -39824,10 +39824,10 @@
         <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -39836,28 +39836,28 @@
         <v>0</v>
       </c>
       <c r="L47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R47" s="2">
         <v>0</v>
       </c>
       <c r="S47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="2">
         <v>1</v>
@@ -39869,16 +39869,16 @@
         <v>0</v>
       </c>
       <c r="W47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2">
         <v>0</v>
       </c>
       <c r="Y47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="2">
         <v>1</v>
@@ -39898,10 +39898,10 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>27577</v>
+        <v>52175</v>
       </c>
       <c r="B48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -39910,7 +39910,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2">
         <v>0</v>
@@ -39934,16 +39934,16 @@
         <v>1</v>
       </c>
       <c r="M48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="2">
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="2">
         <v>1</v>
@@ -39952,16 +39952,16 @@
         <v>0</v>
       </c>
       <c r="S48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="2">
         <v>0</v>
       </c>
       <c r="V48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48" s="2">
         <v>0</v>
@@ -39993,7 +39993,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>69760</v>
+        <v>28627</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -40014,19 +40014,19 @@
         <v>0</v>
       </c>
       <c r="H49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -40035,10 +40035,10 @@
         <v>0</v>
       </c>
       <c r="O49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="2">
         <v>0</v>
@@ -40062,7 +40062,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49" s="2">
         <v>0</v>
@@ -40071,7 +40071,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="2">
         <v>0</v>
@@ -40083,956 +40083,6 @@
         <v>0</v>
       </c>
       <c r="AE49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>27527</v>
-      </c>
-      <c r="B50" s="2">
-        <v>0</v>
-      </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2">
-        <v>1</v>
-      </c>
-      <c r="M50" s="2">
-        <v>1</v>
-      </c>
-      <c r="N50" s="2">
-        <v>0</v>
-      </c>
-      <c r="O50" s="2">
-        <v>1</v>
-      </c>
-      <c r="P50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>1</v>
-      </c>
-      <c r="R50" s="2">
-        <v>0</v>
-      </c>
-      <c r="S50" s="2">
-        <v>0</v>
-      </c>
-      <c r="T50" s="2">
-        <v>1</v>
-      </c>
-      <c r="U50" s="2">
-        <v>0</v>
-      </c>
-      <c r="V50" s="2">
-        <v>0</v>
-      </c>
-      <c r="W50" s="2">
-        <v>0</v>
-      </c>
-      <c r="X50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>73441</v>
-      </c>
-      <c r="B51" s="2">
-        <v>0</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
-        <v>1</v>
-      </c>
-      <c r="N51" s="2">
-        <v>0</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0</v>
-      </c>
-      <c r="P51" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2">
-        <v>0</v>
-      </c>
-      <c r="S51" s="2">
-        <v>0</v>
-      </c>
-      <c r="T51" s="2">
-        <v>1</v>
-      </c>
-      <c r="U51" s="2">
-        <v>0</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0</v>
-      </c>
-      <c r="W51" s="2">
-        <v>1</v>
-      </c>
-      <c r="X51" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>14100</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0</v>
-      </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
-        <v>1</v>
-      </c>
-      <c r="I52" s="2">
-        <v>1</v>
-      </c>
-      <c r="J52" s="2">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2">
-        <v>1</v>
-      </c>
-      <c r="M52" s="2">
-        <v>0</v>
-      </c>
-      <c r="N52" s="2">
-        <v>0</v>
-      </c>
-      <c r="O52" s="2">
-        <v>0</v>
-      </c>
-      <c r="P52" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>0</v>
-      </c>
-      <c r="R52" s="2">
-        <v>0</v>
-      </c>
-      <c r="S52" s="2">
-        <v>1</v>
-      </c>
-      <c r="T52" s="2">
-        <v>1</v>
-      </c>
-      <c r="U52" s="2">
-        <v>0</v>
-      </c>
-      <c r="V52" s="2">
-        <v>0</v>
-      </c>
-      <c r="W52" s="2">
-        <v>0</v>
-      </c>
-      <c r="X52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>56079</v>
-      </c>
-      <c r="B53" s="2">
-        <v>0</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2">
-        <v>0</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2">
-        <v>1</v>
-      </c>
-      <c r="J53" s="2">
-        <v>1</v>
-      </c>
-      <c r="K53" s="2">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2">
-        <v>1</v>
-      </c>
-      <c r="N53" s="2">
-        <v>0</v>
-      </c>
-      <c r="O53" s="2">
-        <v>0</v>
-      </c>
-      <c r="P53" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>1</v>
-      </c>
-      <c r="R53" s="2">
-        <v>0</v>
-      </c>
-      <c r="S53" s="2">
-        <v>0</v>
-      </c>
-      <c r="T53" s="2">
-        <v>1</v>
-      </c>
-      <c r="U53" s="2">
-        <v>0</v>
-      </c>
-      <c r="V53" s="2">
-        <v>0</v>
-      </c>
-      <c r="W53" s="2">
-        <v>0</v>
-      </c>
-      <c r="X53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>98589</v>
-      </c>
-      <c r="B54" s="2">
-        <v>0</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0</v>
-      </c>
-      <c r="E54" s="2">
-        <v>0</v>
-      </c>
-      <c r="F54" s="2">
-        <v>0</v>
-      </c>
-      <c r="G54" s="2">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
-        <v>1</v>
-      </c>
-      <c r="I54" s="2">
-        <v>1</v>
-      </c>
-      <c r="J54" s="2">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
-        <v>1</v>
-      </c>
-      <c r="N54" s="2">
-        <v>0</v>
-      </c>
-      <c r="O54" s="2">
-        <v>1</v>
-      </c>
-      <c r="P54" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2">
-        <v>1</v>
-      </c>
-      <c r="S54" s="2">
-        <v>1</v>
-      </c>
-      <c r="T54" s="2">
-        <v>1</v>
-      </c>
-      <c r="U54" s="2">
-        <v>0</v>
-      </c>
-      <c r="V54" s="2">
-        <v>0</v>
-      </c>
-      <c r="W54" s="2">
-        <v>0</v>
-      </c>
-      <c r="X54" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y54" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>79015</v>
-      </c>
-      <c r="B55" s="2">
-        <v>0</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2">
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>1</v>
-      </c>
-      <c r="J55" s="2">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2">
-        <v>0</v>
-      </c>
-      <c r="M55" s="2">
-        <v>1</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0</v>
-      </c>
-      <c r="O55" s="2">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2">
-        <v>0</v>
-      </c>
-      <c r="S55" s="2">
-        <v>0</v>
-      </c>
-      <c r="T55" s="2">
-        <v>1</v>
-      </c>
-      <c r="U55" s="2">
-        <v>0</v>
-      </c>
-      <c r="V55" s="2">
-        <v>0</v>
-      </c>
-      <c r="W55" s="2">
-        <v>1</v>
-      </c>
-      <c r="X55" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y55" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>39550</v>
-      </c>
-      <c r="B56" s="2">
-        <v>0</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0</v>
-      </c>
-      <c r="E56" s="2">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0</v>
-      </c>
-      <c r="G56" s="2">
-        <v>0</v>
-      </c>
-      <c r="H56" s="2">
-        <v>1</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2">
-        <v>0</v>
-      </c>
-      <c r="K56" s="2">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2">
-        <v>0</v>
-      </c>
-      <c r="M56" s="2">
-        <v>1</v>
-      </c>
-      <c r="N56" s="2">
-        <v>0</v>
-      </c>
-      <c r="O56" s="2">
-        <v>0</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>0</v>
-      </c>
-      <c r="R56" s="2">
-        <v>0</v>
-      </c>
-      <c r="S56" s="2">
-        <v>1</v>
-      </c>
-      <c r="T56" s="2">
-        <v>1</v>
-      </c>
-      <c r="U56" s="2">
-        <v>0</v>
-      </c>
-      <c r="V56" s="2">
-        <v>0</v>
-      </c>
-      <c r="W56" s="2">
-        <v>0</v>
-      </c>
-      <c r="X56" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y56" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>87829</v>
-      </c>
-      <c r="B57" s="2">
-        <v>0</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0</v>
-      </c>
-      <c r="E57" s="2">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0</v>
-      </c>
-      <c r="G57" s="2">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2">
-        <v>1</v>
-      </c>
-      <c r="I57" s="2">
-        <v>1</v>
-      </c>
-      <c r="J57" s="2">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2">
-        <v>0</v>
-      </c>
-      <c r="M57" s="2">
-        <v>0</v>
-      </c>
-      <c r="N57" s="2">
-        <v>0</v>
-      </c>
-      <c r="O57" s="2">
-        <v>0</v>
-      </c>
-      <c r="P57" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2">
-        <v>0</v>
-      </c>
-      <c r="S57" s="2">
-        <v>1</v>
-      </c>
-      <c r="T57" s="2">
-        <v>1</v>
-      </c>
-      <c r="U57" s="2">
-        <v>0</v>
-      </c>
-      <c r="V57" s="2">
-        <v>0</v>
-      </c>
-      <c r="W57" s="2">
-        <v>0</v>
-      </c>
-      <c r="X57" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>16115</v>
-      </c>
-      <c r="B58" s="2">
-        <v>0</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2">
-        <v>0</v>
-      </c>
-      <c r="E58" s="2">
-        <v>0</v>
-      </c>
-      <c r="F58" s="2">
-        <v>1</v>
-      </c>
-      <c r="G58" s="2">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
-        <v>1</v>
-      </c>
-      <c r="J58" s="2">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2">
-        <v>1</v>
-      </c>
-      <c r="N58" s="2">
-        <v>0</v>
-      </c>
-      <c r="O58" s="2">
-        <v>0</v>
-      </c>
-      <c r="P58" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>0</v>
-      </c>
-      <c r="R58" s="2">
-        <v>0</v>
-      </c>
-      <c r="S58" s="2">
-        <v>1</v>
-      </c>
-      <c r="T58" s="2">
-        <v>1</v>
-      </c>
-      <c r="U58" s="2">
-        <v>0</v>
-      </c>
-      <c r="V58" s="2">
-        <v>0</v>
-      </c>
-      <c r="W58" s="2">
-        <v>0</v>
-      </c>
-      <c r="X58" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>28627</v>
-      </c>
-      <c r="B59" s="2">
-        <v>0</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
-        <v>0</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2">
-        <v>1</v>
-      </c>
-      <c r="K59" s="2">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2">
-        <v>1</v>
-      </c>
-      <c r="M59" s="2">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2">
-        <v>0</v>
-      </c>
-      <c r="O59" s="2">
-        <v>1</v>
-      </c>
-      <c r="P59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>0</v>
-      </c>
-      <c r="R59" s="2">
-        <v>0</v>
-      </c>
-      <c r="S59" s="2">
-        <v>1</v>
-      </c>
-      <c r="T59" s="2">
-        <v>1</v>
-      </c>
-      <c r="U59" s="2">
-        <v>0</v>
-      </c>
-      <c r="V59" s="2">
-        <v>0</v>
-      </c>
-      <c r="W59" s="2">
-        <v>0</v>
-      </c>
-      <c r="X59" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="2">
         <v>0</v>
       </c>
     </row>
